--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -458,7 +458,7 @@
         <v>male</v>
       </c>
       <c r="E3" s="1">
-        <v>37131.770833333336</v>
+        <v>37129.770833333336</v>
       </c>
       <c r="F3">
         <v>122</v>
